--- a/GitFreeCRM/src/main/java/com/qa/crm/testdata/ExcelData.xlsx
+++ b/GitFreeCRM/src/main/java/com/qa/crm/testdata/ExcelData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sikder\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CEEE18-91B0-4DBF-AF5D-3B9D6CD21CAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0404171B-D55D-4E24-A937-2E4B14CAFEF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{C4586507-93C5-4268-8BA8-BFABB630B5AD}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19320" windowHeight="10920" xr2:uid="{C4586507-93C5-4268-8BA8-BFABB630B5AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +26,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>Biman Airlines</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -41,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +430,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9AA57E-4E5A-4A01-B09A-4F080807A43A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>